--- a/BOM、库房等文件/研发库房现有整理汇总.xlsx
+++ b/BOM、库房等文件/研发库房现有整理汇总.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="274">
   <si>
     <t>品名</t>
   </si>
@@ -980,6 +980,72 @@
       </rPr>
       <t>603</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料-电子件-传感器-插件-PT1000</t>
+  </si>
+  <si>
+    <t>原料-电子件-传感器-插件-PT1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料-电子件-传感器-插件-长线DS18b20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料-结构件-五金件-紧固件-轴销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料-电子设备-通讯-插件-ZIGBEE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料-电子设备-显示-其他-数字TFT液晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料-结构件-塑料件-常规-贴片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>半成品-其他-核心板-核心板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料-电子件-开关-贴片-拨码开关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料-电子件-集成电路-贴片-集成电路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料-电子设备-电源-插件-DC-DC电源</t>
+  </si>
+  <si>
+    <t>原料-电子设备-电源-插件-DC-DC电源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料-电子设备-电源-插件-AC-DC、DC-DC电源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料-电子件-集成电路-贴片-微处理器（MCU）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料-电子件-电池-其他-电池</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料-结构件-塑料件-常规-张力计塑料片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料-包装材料-包装带-常规-绑带</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1508,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1518,7 +1584,7 @@
     <col min="2" max="2" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
   </cols>
@@ -1547,8 +1613,10 @@
       <c r="C2" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
@@ -1561,8 +1629,10 @@
       <c r="C3" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="11" t="s">
+        <v>257</v>
+      </c>
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6">
@@ -1575,8 +1645,10 @@
       <c r="C4" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="11" t="s">
+        <v>259</v>
+      </c>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
@@ -1589,8 +1661,10 @@
       <c r="C5" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="11" t="s">
+        <v>259</v>
+      </c>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
@@ -1603,8 +1677,10 @@
       <c r="C6" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="11" t="s">
+        <v>259</v>
+      </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6">
@@ -1615,8 +1691,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6">
@@ -1629,8 +1707,10 @@
       <c r="C8" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6">
@@ -1643,8 +1723,10 @@
       <c r="C9" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6">
@@ -1657,8 +1739,10 @@
       <c r="C10" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6">
@@ -1671,8 +1755,10 @@
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="11" t="s">
+        <v>263</v>
+      </c>
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6">
@@ -1683,8 +1769,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="11" t="s">
+        <v>264</v>
+      </c>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6">
@@ -1697,8 +1785,10 @@
       <c r="C13" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="11" t="s">
+        <v>265</v>
+      </c>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6">
@@ -1711,8 +1801,10 @@
       <c r="C14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="11" t="s">
+        <v>266</v>
+      </c>
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6">
@@ -1725,8 +1817,10 @@
       <c r="C15" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="11" t="s">
+        <v>268</v>
+      </c>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6">
@@ -1739,8 +1833,10 @@
       <c r="C16" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="11" t="s">
+        <v>267</v>
+      </c>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:12">
@@ -1753,8 +1849,10 @@
       <c r="C17" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="11" t="s">
+        <v>269</v>
+      </c>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:12">
@@ -1767,8 +1865,10 @@
       <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="11" t="s">
+        <v>270</v>
+      </c>
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:12">
@@ -1781,8 +1881,10 @@
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="11" t="s">
+        <v>270</v>
+      </c>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:12">
@@ -1795,8 +1897,10 @@
       <c r="C20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="11" t="s">
+        <v>271</v>
+      </c>
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:12">
@@ -1807,8 +1911,10 @@
         <v>91</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F21" s="16"/>
       <c r="L21" s="13"/>
     </row>
@@ -1822,8 +1928,10 @@
       <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:12">
@@ -1836,8 +1944,10 @@
       <c r="C23" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="8"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:12">
